--- a/biology/Botanique/Newtonia_camerunensis/Newtonia_camerunensis.xlsx
+++ b/biology/Botanique/Newtonia_camerunensis/Newtonia_camerunensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Newtonia camerunensis Villiers [2] est une espèce d'arbres de la famille des Fabaceae selon la classification phylogénétique. C'est une plante endémique des hautes terres de Bamenda (Bamenda Highlands) et des monts Bamboutos au Cameroun. La plus forte densité mondiale se trouve dans les forêts de Dom[3]. Elle est considérée par l'UICN comme en danger critique d'extinction (CR).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Newtonia camerunensis Villiers  est une espèce d'arbres de la famille des Fabaceae selon la classification phylogénétique. C'est une plante endémique des hautes terres de Bamenda (Bamenda Highlands) et des monts Bamboutos au Cameroun. La plus forte densité mondiale se trouve dans les forêts de Dom. Elle est considérée par l'UICN comme en danger critique d'extinction (CR).
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet arbre peut atteindre un diamètre moyen de 50 cm. Son tronc est cannelé à la base.
-Il se développe dans les forêts tropicales, notamment dans les patchs de forêts au milieu des prairies. Son aire de répartition se situe entre 1 600 et 2 030 mètres d'altitude[4].
+Il se développe dans les forêts tropicales, notamment dans les patchs de forêts au milieu des prairies. Son aire de répartition se situe entre 1 600 et 2 030 mètres d'altitude.
 </t>
         </is>
       </c>
